--- a/tests/excel_template.xlsx
+++ b/tests/excel_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\sqlgen\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10459EF8-27E6-45A1-9DC4-C8F1642B7926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACBC7A9-7D01-4877-AA7C-BD6D8651C71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="118">
   <si>
     <t>库名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,18 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>字段中文名（注释）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,17 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>附加属性</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加工方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,105 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>Seq</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>Field</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>Comment</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>Type</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>length</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>Null</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>Default</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>Key</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>Extra</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,39 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>credit_no</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>社会信用代码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,28 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>企业名称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,28 +198,6 @@
   </si>
   <si>
     <t>根据CRECODE去企业基本信息表匹配eid，如果匹配出多条eid，取企业名称和ORGNAME相同的那条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>updatedate</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>最新变更日期</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,61 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>row_update_time</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>记录更新时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>datetime</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>CURRENT_TIMESTAMP</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-      </rPr>
-      <t>on update CURRENT_TIMESTAMP</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求详述：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,15 +456,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>""</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>字段中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会信用代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatedate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新变更日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row_update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on update CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -760,12 +550,6 @@
       <name val="微软雅黑"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
@@ -782,26 +566,14 @@
       <name val="宋体"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Microsoft YaHei"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,12 +598,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -847,66 +613,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,24 +955,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA201"/>
+  <dimension ref="A1:AA200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="22.375" customWidth="1"/>
     <col min="11" max="12" width="8.625" customWidth="1"/>
     <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="14" width="7.5" customWidth="1"/>
@@ -1272,7 +1016,7 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" spans="1:27" ht="16.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1404,19 +1148,19 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" ht="16.5">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1435,53 +1179,53 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="O7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="P7" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1496,88 +1240,90 @@
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="F8" s="5">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
+      <c r="J8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="K8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="L8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="5">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1593,41 +1339,37 @@
     </row>
     <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="5">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="5">
         <v>255</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="4"/>
@@ -1644,41 +1386,41 @@
     </row>
     <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="5">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -1693,42 +1435,38 @@
     </row>
     <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="5">
-        <v>36</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="P12" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1744,39 +1482,39 @@
     </row>
     <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="5">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="F13" s="5">
+        <v>200</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P13" s="3"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -1791,39 +1529,37 @@
     </row>
     <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F14" s="5">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>129</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="4"/>
@@ -1840,39 +1576,37 @@
     </row>
     <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F15" s="5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>129</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="4"/>
@@ -1889,39 +1623,37 @@
     </row>
     <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F16" s="5">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>129</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="4"/>
@@ -1938,41 +1670,39 @@
     </row>
     <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>129</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -1987,38 +1717,38 @@
     </row>
     <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2034,38 +1764,38 @@
     </row>
     <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2081,38 +1811,38 @@
     </row>
     <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2128,38 +1858,38 @@
     </row>
     <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -2175,38 +1905,38 @@
     </row>
     <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -2222,38 +1952,38 @@
     </row>
     <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -2269,38 +1999,38 @@
     </row>
     <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -2316,38 +2046,38 @@
     </row>
     <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -2361,41 +2091,43 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" ht="16.5">
+    <row r="26" spans="1:27" ht="66">
       <c r="A26" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="F26" s="5">
+        <v>255</v>
+      </c>
       <c r="G26" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P26" s="3"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -2408,43 +2140,39 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" ht="66">
+    <row r="27" spans="1:27" ht="16.5">
       <c r="A27" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5">
         <v>255</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>129</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>105</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="4"/>
@@ -2461,39 +2189,37 @@
     </row>
     <row r="28" spans="1:27" ht="16.5">
       <c r="A28" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F28" s="5">
         <v>255</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>129</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="4"/>
@@ -2510,41 +2236,39 @@
     </row>
     <row r="29" spans="1:27" ht="16.5">
       <c r="A29" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F29" s="5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>129</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="5">
+        <v>9910043</v>
+      </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
@@ -2559,41 +2283,41 @@
     </row>
     <row r="30" spans="1:27" ht="16.5">
       <c r="A30" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="F30" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>129</v>
+        <v>37</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="5">
-        <v>9910043</v>
-      </c>
+      <c r="P30" s="3"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
@@ -2608,38 +2332,36 @@
     </row>
     <row r="31" spans="1:27" ht="16.5">
       <c r="A31" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F31" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-1</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>118</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -2657,34 +2379,34 @@
     </row>
     <row r="32" spans="1:27" ht="16.5">
       <c r="A32" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="5">
-        <v>20</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1</v>
+        <v>37</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="K32" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -2703,36 +2425,18 @@
       <c r="AA32" s="4"/>
     </row>
     <row r="33" spans="1:27" ht="16.5">
-      <c r="A33" s="5">
-        <v>25</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A33" s="11"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2750,7 +2454,7 @@
       <c r="AA33" s="4"/>
     </row>
     <row r="34" spans="1:27" ht="16.5">
-      <c r="A34" s="13"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2779,13 +2483,15 @@
       <c r="AA34" s="4"/>
     </row>
     <row r="35" spans="1:27" ht="16.5">
-      <c r="A35" s="13"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="A35" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -2808,15 +2514,15 @@
       <c r="AA35" s="4"/>
     </row>
     <row r="36" spans="1:27" ht="16.5">
-      <c r="A36" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -2840,14 +2546,14 @@
     </row>
     <row r="37" spans="1:27" ht="16.5">
       <c r="A37" s="14" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2870,15 +2576,13 @@
       <c r="AA37" s="4"/>
     </row>
     <row r="38" spans="1:27" ht="16.5">
-      <c r="A38" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2901,7 +2605,7 @@
       <c r="AA38" s="4"/>
     </row>
     <row r="39" spans="1:27" ht="16.5">
-      <c r="A39" s="13"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2930,7 +2634,7 @@
       <c r="AA39" s="4"/>
     </row>
     <row r="40" spans="1:27" ht="16.5">
-      <c r="A40" s="13"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2959,7 +2663,7 @@
       <c r="AA40" s="4"/>
     </row>
     <row r="41" spans="1:27" ht="16.5">
-      <c r="A41" s="13"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2988,7 +2692,7 @@
       <c r="AA41" s="4"/>
     </row>
     <row r="42" spans="1:27" ht="16.5">
-      <c r="A42" s="13"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3017,7 +2721,7 @@
       <c r="AA42" s="4"/>
     </row>
     <row r="43" spans="1:27" ht="16.5">
-      <c r="A43" s="13"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3046,7 +2750,7 @@
       <c r="AA43" s="4"/>
     </row>
     <row r="44" spans="1:27" ht="16.5">
-      <c r="A44" s="13"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3075,7 +2779,7 @@
       <c r="AA44" s="4"/>
     </row>
     <row r="45" spans="1:27" ht="16.5">
-      <c r="A45" s="13"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3104,7 +2808,7 @@
       <c r="AA45" s="4"/>
     </row>
     <row r="46" spans="1:27" ht="16.5">
-      <c r="A46" s="13"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3133,7 +2837,7 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" ht="16.5">
-      <c r="A47" s="13"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3162,7 +2866,7 @@
       <c r="AA47" s="4"/>
     </row>
     <row r="48" spans="1:27" ht="16.5">
-      <c r="A48" s="13"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3191,7 +2895,7 @@
       <c r="AA48" s="4"/>
     </row>
     <row r="49" spans="1:27" ht="16.5">
-      <c r="A49" s="13"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3220,22 +2924,22 @@
       <c r="AA49" s="4"/>
     </row>
     <row r="50" spans="1:27" ht="16.5">
-      <c r="A50" s="13"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
@@ -7598,41 +7302,12 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" ht="16.5">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-      <c r="R201" s="4"/>
-      <c r="S201" s="4"/>
-      <c r="T201" s="4"/>
-      <c r="U201" s="4"/>
-      <c r="V201" s="4"/>
-      <c r="W201" s="4"/>
-      <c r="X201" s="4"/>
-      <c r="Y201" s="4"/>
-      <c r="Z201" s="4"/>
-      <c r="AA201" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A36:G36"/>
     <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A35:G35"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
